--- a/hardware/video/video_adapter/CDA Technical.xlsx
+++ b/hardware/video/video_adapter/CDA Technical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Home Files\Projects\Hardware Projects\Abacus 2\VGA Output\Color Display Adapter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temporary\GitHub\abacus-2\hardware\video\video_adapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1158B477-B43F-41AB-8F1C-58096D5C5C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5459D6B1-B91C-492B-870D-2D28C3F10F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{914C3E84-A332-43BA-9962-FF02EB75701E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{914C3E84-A332-43BA-9962-FF02EB75701E}"/>
   </bookViews>
   <sheets>
     <sheet name="Modes" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -75,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9905" uniqueCount="3273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9906" uniqueCount="3274">
   <si>
     <t>00</t>
   </si>
@@ -9865,9 +9854,6 @@
     <t>800×600</t>
   </si>
   <si>
-    <t>1280×720</t>
-  </si>
-  <si>
     <t>1024×768</t>
   </si>
   <si>
@@ -9959,6 +9945,12 @@
   </si>
   <si>
     <t>CDA III</t>
+  </si>
+  <si>
+    <t>1280×720*</t>
+  </si>
+  <si>
+    <t>* Will need to overscan to 1280×800</t>
   </si>
 </sst>
 </file>
@@ -12983,9 +12975,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -13023,7 +13015,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -13129,7 +13121,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13271,7 +13263,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13282,10 +13274,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13325,10 +13317,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3179</v>
@@ -13779,10 +13771,10 @@
         <v>7</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3179</v>
@@ -13805,7 +13797,7 @@
         <v>3234</v>
       </c>
       <c r="E23" s="364" t="s">
-        <v>3252</v>
+        <v>3251</v>
       </c>
       <c r="F23" s="364" t="s">
         <v>1058</v>
@@ -13831,7 +13823,7 @@
         <v>3234</v>
       </c>
       <c r="E24" s="317" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="F24" s="317" t="s">
         <v>1058</v>
@@ -14013,7 +14005,7 @@
         <v>3234</v>
       </c>
       <c r="E31" s="364" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="F31" s="364" t="s">
         <v>1058</v>
@@ -14039,7 +14031,7 @@
         <v>3234</v>
       </c>
       <c r="E32" s="364" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="F32" s="364" t="s">
         <v>1058</v>
@@ -14065,7 +14057,7 @@
         <v>3234</v>
       </c>
       <c r="E33" s="317" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="F33" s="317" t="s">
         <v>1058</v>
@@ -14091,7 +14083,7 @@
         <v>3234</v>
       </c>
       <c r="E34" s="317" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="F34" s="317" t="s">
         <v>1058</v>
@@ -14117,7 +14109,7 @@
         <v>3234</v>
       </c>
       <c r="E35" s="317" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="F35" s="317" t="s">
         <v>1058</v>
@@ -14143,7 +14135,7 @@
         <v>3234</v>
       </c>
       <c r="E36" s="317" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="F36" s="317" t="s">
         <v>1058</v>
@@ -14169,7 +14161,7 @@
         <v>3234</v>
       </c>
       <c r="E37" s="317" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="F37" s="317" t="s">
         <v>1058</v>
@@ -14195,7 +14187,7 @@
         <v>3234</v>
       </c>
       <c r="E38" s="317" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="F38" s="317" t="s">
         <v>1058</v>
@@ -14233,10 +14225,10 @@
         <v>7</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3179</v>
@@ -14259,7 +14251,7 @@
         <v>3220</v>
       </c>
       <c r="E43" s="364" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F43" s="364" t="s">
         <v>1058</v>
@@ -14311,7 +14303,7 @@
         <v>3220</v>
       </c>
       <c r="E45" s="364" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="F45" s="364" t="s">
         <v>1058</v>
@@ -14467,7 +14459,7 @@
         <v>3220</v>
       </c>
       <c r="E51" s="364" t="s">
-        <v>3250</v>
+        <v>3249</v>
       </c>
       <c r="F51" s="364" t="s">
         <v>1058</v>
@@ -14519,7 +14511,7 @@
         <v>3220</v>
       </c>
       <c r="E53" s="364" t="s">
-        <v>3251</v>
+        <v>3250</v>
       </c>
       <c r="F53" s="364" t="s">
         <v>1058</v>
@@ -14571,7 +14563,7 @@
         <v>3220</v>
       </c>
       <c r="E55" s="364" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F55" s="364" t="s">
         <v>1058</v>
@@ -14623,7 +14615,7 @@
         <v>3220</v>
       </c>
       <c r="E57" s="364" t="s">
-        <v>3249</v>
+        <v>3248</v>
       </c>
       <c r="F57" s="364" t="s">
         <v>1058</v>
@@ -14687,10 +14679,10 @@
         <v>7</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3179</v>
@@ -14713,14 +14705,14 @@
         <v>3220</v>
       </c>
       <c r="E63" s="365" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F63" s="365">
         <f>(512*20)/1024</f>
         <v>10</v>
       </c>
       <c r="G63" s="317" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="H63" s="318" t="s">
         <v>1058</v>
@@ -14766,14 +14758,14 @@
         <v>3220</v>
       </c>
       <c r="E65" s="365" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F65" s="365">
         <f>(512*25)/1024</f>
         <v>12.5</v>
       </c>
       <c r="G65" s="317" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="H65" s="318" t="s">
         <v>1058</v>
@@ -14813,20 +14805,20 @@
         <v>3236</v>
       </c>
       <c r="C67" s="316" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="D67" s="364" t="s">
         <v>3220</v>
       </c>
       <c r="E67" s="365" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F67" s="365">
         <f>(512*32)/1024</f>
         <v>16</v>
       </c>
       <c r="G67" s="317" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="H67" s="318" t="s">
         <v>1058</v>
@@ -14840,7 +14832,7 @@
         <v>1058</v>
       </c>
       <c r="C68" s="316" t="s">
-        <v>1058</v>
+        <v>3241</v>
       </c>
       <c r="D68" s="317" t="s">
         <v>1058</v>
@@ -14866,19 +14858,19 @@
         <v>3237</v>
       </c>
       <c r="C69" s="316" t="s">
-        <v>3241</v>
+        <v>3272</v>
       </c>
       <c r="D69" s="364" t="s">
         <v>3220</v>
       </c>
       <c r="E69" s="365" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F69" s="365">
         <v>15</v>
       </c>
       <c r="G69" s="317" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="H69" s="318" t="s">
         <v>1058</v>
@@ -14889,22 +14881,22 @@
         <v>2942</v>
       </c>
       <c r="B70" s="315" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="C70" s="316" t="s">
-        <v>3241</v>
+        <v>3272</v>
       </c>
       <c r="D70" s="317" t="s">
         <v>3220</v>
       </c>
       <c r="E70" s="317" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="F70" s="317">
         <v>7.5</v>
       </c>
       <c r="G70" s="317" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="H70" s="318" t="s">
         <v>1058</v>
@@ -14915,22 +14907,22 @@
         <v>2943</v>
       </c>
       <c r="B71" s="315" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="C71" s="316" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="D71" s="364" t="s">
         <v>3220</v>
       </c>
       <c r="E71" s="365" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F71" s="365">
         <v>18</v>
       </c>
       <c r="G71" s="317" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="H71" s="318" t="s">
         <v>1058</v>
@@ -14941,23 +14933,23 @@
         <v>2944</v>
       </c>
       <c r="B72" s="315" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="C72" s="316" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="D72" s="364" t="s">
         <v>3220</v>
       </c>
       <c r="E72" s="317" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="F72" s="365">
         <f>(512*18)/1024</f>
         <v>9</v>
       </c>
       <c r="G72" s="317" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="H72" s="318" t="s">
         <v>1058</v>
@@ -14977,13 +14969,13 @@
         <v>3220</v>
       </c>
       <c r="E73" s="365" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F73" s="365">
         <v>22.5</v>
       </c>
       <c r="G73" s="317" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="H73" s="318" t="s">
         <v>1058</v>
@@ -14994,7 +14986,7 @@
         <v>10</v>
       </c>
       <c r="B74" s="315" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="C74" s="316" t="s">
         <v>3172</v>
@@ -15003,13 +14995,13 @@
         <v>3220</v>
       </c>
       <c r="E74" s="365" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="F74" s="317">
         <v>7.5</v>
       </c>
       <c r="G74" s="317" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="H74" s="318" t="s">
         <v>1058</v>
@@ -15023,19 +15015,19 @@
         <v>3238</v>
       </c>
       <c r="C75" s="316" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="D75" s="364" t="s">
         <v>3220</v>
       </c>
       <c r="E75" s="365" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F75" s="365">
         <v>30</v>
       </c>
       <c r="G75" s="317" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="H75" s="318" t="s">
         <v>1058</v>
@@ -15046,22 +15038,22 @@
         <v>12</v>
       </c>
       <c r="B76" s="315" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="C76" s="316" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="D76" s="317" t="s">
         <v>3220</v>
       </c>
       <c r="E76" s="317" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="F76" s="317">
         <v>15</v>
       </c>
       <c r="G76" s="317" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="H76" s="318" t="s">
         <v>1058</v>
@@ -15075,19 +15067,19 @@
         <v>3239</v>
       </c>
       <c r="C77" s="316" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="D77" s="364" t="s">
         <v>3220</v>
       </c>
       <c r="E77" s="365" t="s">
-        <v>3248</v>
+        <v>3247</v>
       </c>
       <c r="F77" s="365">
         <v>45</v>
       </c>
       <c r="G77" s="317" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="H77" s="318" t="s">
         <v>1058</v>
@@ -15098,25 +15090,30 @@
         <v>14</v>
       </c>
       <c r="B78" s="315" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="C78" s="316" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="D78" s="317" t="s">
         <v>3220</v>
       </c>
       <c r="E78" s="317" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="F78" s="317">
         <v>22.5</v>
       </c>
       <c r="G78" s="317" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="H78" s="318" t="s">
         <v>1058</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="1" t="s">
+        <v>3273</v>
       </c>
     </row>
   </sheetData>
@@ -24547,11 +24544,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="T18:T21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T17"/>
     <mergeCell ref="T22:T25"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A18:A33"/>
@@ -24563,12 +24561,11 @@
     <mergeCell ref="T42:T49"/>
     <mergeCell ref="T50:T61"/>
     <mergeCell ref="T62:T63"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T17"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="T18:T21"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.86614173228346458" bottom="0.86614173228346458" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -36293,6 +36290,40 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A194:A209"/>
+    <mergeCell ref="A210:A225"/>
+    <mergeCell ref="A226:A241"/>
+    <mergeCell ref="A242:A257"/>
+    <mergeCell ref="A130:A145"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="A178:A193"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A162:A177"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="A66:A81"/>
+    <mergeCell ref="A146:A161"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="T38:T43"/>
+    <mergeCell ref="T44:T49"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T17"/>
+    <mergeCell ref="T18:T25"/>
+    <mergeCell ref="T26:T33"/>
+    <mergeCell ref="T226:T241"/>
+    <mergeCell ref="T242:T257"/>
+    <mergeCell ref="T114:T126"/>
+    <mergeCell ref="T127:T128"/>
+    <mergeCell ref="T92:T93"/>
+    <mergeCell ref="T157:T161"/>
+    <mergeCell ref="T178:T193"/>
+    <mergeCell ref="T210:T225"/>
     <mergeCell ref="T50:T57"/>
     <mergeCell ref="T87:T90"/>
     <mergeCell ref="T146:T153"/>
@@ -36308,40 +36339,6 @@
     <mergeCell ref="T130:T137"/>
     <mergeCell ref="T138:T145"/>
     <mergeCell ref="T98:T113"/>
-    <mergeCell ref="T226:T241"/>
-    <mergeCell ref="T242:T257"/>
-    <mergeCell ref="T114:T126"/>
-    <mergeCell ref="T127:T128"/>
-    <mergeCell ref="T92:T93"/>
-    <mergeCell ref="T157:T161"/>
-    <mergeCell ref="T178:T193"/>
-    <mergeCell ref="T210:T225"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="T38:T43"/>
-    <mergeCell ref="T44:T49"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T17"/>
-    <mergeCell ref="T18:T25"/>
-    <mergeCell ref="T26:T33"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A178:A193"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A162:A177"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A146:A161"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="A194:A209"/>
-    <mergeCell ref="A210:A225"/>
-    <mergeCell ref="A226:A241"/>
-    <mergeCell ref="A242:A257"/>
-    <mergeCell ref="A130:A145"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.86614173228346458" bottom="0.86614173228346458" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -48230,6 +48227,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="T18:T25"/>
+    <mergeCell ref="T26:T33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="T38:T43"/>
+    <mergeCell ref="T44:T49"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="T50:T57"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="T60:T65"/>
+    <mergeCell ref="A67:A82"/>
+    <mergeCell ref="T67:T73"/>
+    <mergeCell ref="T75:T80"/>
+    <mergeCell ref="A83:A98"/>
+    <mergeCell ref="T83:T87"/>
+    <mergeCell ref="T88:T91"/>
+    <mergeCell ref="T93:T94"/>
+    <mergeCell ref="A99:A114"/>
+    <mergeCell ref="T99:T114"/>
+    <mergeCell ref="T159:T163"/>
+    <mergeCell ref="A164:A179"/>
+    <mergeCell ref="T164:T171"/>
+    <mergeCell ref="T172:T179"/>
+    <mergeCell ref="A115:A130"/>
+    <mergeCell ref="T115:T127"/>
+    <mergeCell ref="T128:T129"/>
+    <mergeCell ref="A132:A147"/>
+    <mergeCell ref="T132:T139"/>
+    <mergeCell ref="T140:T147"/>
     <mergeCell ref="A229:A244"/>
     <mergeCell ref="T229:T244"/>
     <mergeCell ref="A245:A260"/>
@@ -48246,42 +48279,6 @@
     <mergeCell ref="A148:A163"/>
     <mergeCell ref="T148:T155"/>
     <mergeCell ref="T156:T158"/>
-    <mergeCell ref="T159:T163"/>
-    <mergeCell ref="A164:A179"/>
-    <mergeCell ref="T164:T171"/>
-    <mergeCell ref="T172:T179"/>
-    <mergeCell ref="A115:A130"/>
-    <mergeCell ref="T115:T127"/>
-    <mergeCell ref="T128:T129"/>
-    <mergeCell ref="A132:A147"/>
-    <mergeCell ref="T132:T139"/>
-    <mergeCell ref="T140:T147"/>
-    <mergeCell ref="A83:A98"/>
-    <mergeCell ref="T83:T87"/>
-    <mergeCell ref="T88:T91"/>
-    <mergeCell ref="T93:T94"/>
-    <mergeCell ref="A99:A114"/>
-    <mergeCell ref="T99:T114"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="T50:T57"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="T60:T65"/>
-    <mergeCell ref="A67:A82"/>
-    <mergeCell ref="T67:T73"/>
-    <mergeCell ref="T75:T80"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="T18:T25"/>
-    <mergeCell ref="T26:T33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="T38:T43"/>
-    <mergeCell ref="T44:T49"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/hardware/video/video_adapter/CDA Technical.xlsx
+++ b/hardware/video/video_adapter/CDA Technical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temporary\GitHub\abacus-2\hardware\video\video_adapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5459D6B1-B91C-492B-870D-2D28C3F10F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABCE0D3-09FE-4892-84B1-37D7CEE1B3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{914C3E84-A332-43BA-9962-FF02EB75701E}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9906" uniqueCount="3274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9920" uniqueCount="3277">
   <si>
     <t>00</t>
   </si>
@@ -9951,6 +9951,15 @@
   </si>
   <si>
     <t>* Will need to overscan to 1280×800</t>
+  </si>
+  <si>
+    <t>WQHD 80×30</t>
+  </si>
+  <si>
+    <t>QWXGA 40×15</t>
+  </si>
+  <si>
+    <t>64×96</t>
   </si>
 </sst>
 </file>
@@ -13274,10 +13283,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14832,7 +14841,7 @@
         <v>1058</v>
       </c>
       <c r="C68" s="316" t="s">
-        <v>3241</v>
+        <v>1058</v>
       </c>
       <c r="D68" s="317" t="s">
         <v>1058</v>
@@ -15114,6 +15123,58 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>3273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B82" s="315" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C82" s="316" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D82" s="364" t="s">
+        <v>3220</v>
+      </c>
+      <c r="E82" s="317" t="s">
+        <v>3265</v>
+      </c>
+      <c r="F82" s="365">
+        <v>15</v>
+      </c>
+      <c r="G82" s="317" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H82" s="318" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B83" s="315" t="s">
+        <v>3275</v>
+      </c>
+      <c r="C83" s="316" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D83" s="317" t="s">
+        <v>3220</v>
+      </c>
+      <c r="E83" s="317" t="s">
+        <v>3276</v>
+      </c>
+      <c r="F83" s="317">
+        <v>7.5</v>
+      </c>
+      <c r="G83" s="317" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H83" s="318" t="s">
+        <v>1058</v>
       </c>
     </row>
   </sheetData>
@@ -15124,8 +15185,8 @@
     <mergeCell ref="A61:H61"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.94488188976377963" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24544,12 +24605,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T17"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="T18:T21"/>
     <mergeCell ref="T22:T25"/>
     <mergeCell ref="A50:A65"/>
     <mergeCell ref="A18:A33"/>
@@ -24561,11 +24621,12 @@
     <mergeCell ref="T42:T49"/>
     <mergeCell ref="T50:T61"/>
     <mergeCell ref="T62:T63"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="T18:T21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T17"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.86614173228346458" bottom="0.86614173228346458" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="56" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -36290,40 +36351,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A194:A209"/>
-    <mergeCell ref="A210:A225"/>
-    <mergeCell ref="A226:A241"/>
-    <mergeCell ref="A242:A257"/>
-    <mergeCell ref="A130:A145"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="A178:A193"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="A162:A177"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="A82:A97"/>
-    <mergeCell ref="A66:A81"/>
-    <mergeCell ref="A146:A161"/>
-    <mergeCell ref="A114:A129"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="T38:T43"/>
-    <mergeCell ref="T44:T49"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T17"/>
-    <mergeCell ref="T18:T25"/>
-    <mergeCell ref="T26:T33"/>
-    <mergeCell ref="T226:T241"/>
-    <mergeCell ref="T242:T257"/>
-    <mergeCell ref="T114:T126"/>
-    <mergeCell ref="T127:T128"/>
-    <mergeCell ref="T92:T93"/>
-    <mergeCell ref="T157:T161"/>
-    <mergeCell ref="T178:T193"/>
-    <mergeCell ref="T210:T225"/>
     <mergeCell ref="T50:T57"/>
     <mergeCell ref="T87:T90"/>
     <mergeCell ref="T146:T153"/>
@@ -36339,6 +36366,40 @@
     <mergeCell ref="T130:T137"/>
     <mergeCell ref="T138:T145"/>
     <mergeCell ref="T98:T113"/>
+    <mergeCell ref="T226:T241"/>
+    <mergeCell ref="T242:T257"/>
+    <mergeCell ref="T114:T126"/>
+    <mergeCell ref="T127:T128"/>
+    <mergeCell ref="T92:T93"/>
+    <mergeCell ref="T157:T161"/>
+    <mergeCell ref="T178:T193"/>
+    <mergeCell ref="T210:T225"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="T38:T43"/>
+    <mergeCell ref="T44:T49"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T17"/>
+    <mergeCell ref="T18:T25"/>
+    <mergeCell ref="T26:T33"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="A178:A193"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A162:A177"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="A82:A97"/>
+    <mergeCell ref="A66:A81"/>
+    <mergeCell ref="A146:A161"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A194:A209"/>
+    <mergeCell ref="A210:A225"/>
+    <mergeCell ref="A226:A241"/>
+    <mergeCell ref="A242:A257"/>
+    <mergeCell ref="A130:A145"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.86614173228346458" bottom="0.86614173228346458" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -48227,42 +48288,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="T4:T9"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="T12:T17"/>
-    <mergeCell ref="A18:A33"/>
-    <mergeCell ref="T18:T25"/>
-    <mergeCell ref="T26:T33"/>
-    <mergeCell ref="A34:A49"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="T38:T43"/>
-    <mergeCell ref="T44:T49"/>
-    <mergeCell ref="A50:A65"/>
-    <mergeCell ref="T50:T57"/>
-    <mergeCell ref="T58:T59"/>
-    <mergeCell ref="T60:T65"/>
-    <mergeCell ref="A67:A82"/>
-    <mergeCell ref="T67:T73"/>
-    <mergeCell ref="T75:T80"/>
-    <mergeCell ref="A83:A98"/>
-    <mergeCell ref="T83:T87"/>
-    <mergeCell ref="T88:T91"/>
-    <mergeCell ref="T93:T94"/>
-    <mergeCell ref="A99:A114"/>
-    <mergeCell ref="T99:T114"/>
-    <mergeCell ref="T159:T163"/>
-    <mergeCell ref="A164:A179"/>
-    <mergeCell ref="T164:T171"/>
-    <mergeCell ref="T172:T179"/>
-    <mergeCell ref="A115:A130"/>
-    <mergeCell ref="T115:T127"/>
-    <mergeCell ref="T128:T129"/>
-    <mergeCell ref="A132:A147"/>
-    <mergeCell ref="T132:T139"/>
-    <mergeCell ref="T140:T147"/>
     <mergeCell ref="A229:A244"/>
     <mergeCell ref="T229:T244"/>
     <mergeCell ref="A245:A260"/>
@@ -48279,6 +48304,42 @@
     <mergeCell ref="A148:A163"/>
     <mergeCell ref="T148:T155"/>
     <mergeCell ref="T156:T158"/>
+    <mergeCell ref="T159:T163"/>
+    <mergeCell ref="A164:A179"/>
+    <mergeCell ref="T164:T171"/>
+    <mergeCell ref="T172:T179"/>
+    <mergeCell ref="A115:A130"/>
+    <mergeCell ref="T115:T127"/>
+    <mergeCell ref="T128:T129"/>
+    <mergeCell ref="A132:A147"/>
+    <mergeCell ref="T132:T139"/>
+    <mergeCell ref="T140:T147"/>
+    <mergeCell ref="A83:A98"/>
+    <mergeCell ref="T83:T87"/>
+    <mergeCell ref="T88:T91"/>
+    <mergeCell ref="T93:T94"/>
+    <mergeCell ref="A99:A114"/>
+    <mergeCell ref="T99:T114"/>
+    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="T50:T57"/>
+    <mergeCell ref="T58:T59"/>
+    <mergeCell ref="T60:T65"/>
+    <mergeCell ref="A67:A82"/>
+    <mergeCell ref="T67:T73"/>
+    <mergeCell ref="T75:T80"/>
+    <mergeCell ref="A18:A33"/>
+    <mergeCell ref="T18:T25"/>
+    <mergeCell ref="T26:T33"/>
+    <mergeCell ref="A34:A49"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="T38:T43"/>
+    <mergeCell ref="T44:T49"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="T12:T17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
